--- a/src/Tests/Templates/Supagreements.xlsx
+++ b/src/Tests/Templates/Supagreements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Ошибки" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Приложения!$A$1:$S$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Приложения!$A$1:$S$3</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -547,10 +547,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -558,10 +554,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -933,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -951,8 +943,8 @@
     <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="10" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
@@ -1044,13 +1036,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="25">
-        <v>40452</v>
+        <v>45566</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="25">
-        <v>40410</v>
+        <v>45524</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>34</v>
@@ -1071,10 +1063,10 @@
         <v>45</v>
       </c>
       <c r="K2" s="25">
-        <v>40452</v>
+        <v>45566</v>
       </c>
       <c r="L2" s="27">
-        <v>40482</v>
+        <v>45596</v>
       </c>
       <c r="M2" s="28">
         <v>1000</v>
@@ -1117,14 +1109,14 @@
       <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="40">
-        <v>43339</v>
+      <c r="B3" s="25">
+        <v>45567</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="40">
-        <v>43326</v>
+      <c r="D3" s="25">
+        <v>45525</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>34</v>
@@ -1145,10 +1137,12 @@
         <v>45</v>
       </c>
       <c r="K3" s="40">
-        <v>43326</v>
-      </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45">
+        <v>45518</v>
+      </c>
+      <c r="L3" s="27">
+        <v>45597</v>
+      </c>
+      <c r="M3" s="44">
         <v>1331113.1599999999</v>
       </c>
       <c r="N3" s="43" t="s">
@@ -1171,22 +1165,22 @@
       <c r="U3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="46"/>
+      <c r="V3" s="45"/>
       <c r="W3"/>
       <c r="X3"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="40">
-        <v>43339</v>
+      <c r="B4" s="25">
+        <v>45568</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="40">
-        <v>43326</v>
+      <c r="D4" s="25">
+        <v>45526</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>34</v>
@@ -1207,10 +1201,12 @@
         <v>45</v>
       </c>
       <c r="K4" s="40">
-        <v>43326</v>
-      </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="45">
+        <v>45518</v>
+      </c>
+      <c r="L4" s="27">
+        <v>45598</v>
+      </c>
+      <c r="M4" s="44">
         <v>655354.30000000005</v>
       </c>
       <c r="N4" s="43" t="s">
@@ -1233,7 +1229,7 @@
       <c r="U4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="46"/>
+      <c r="V4" s="45"/>
       <c r="W4"/>
       <c r="X4"/>
     </row>
@@ -1241,14 +1237,14 @@
       <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="40">
-        <v>43339</v>
+      <c r="B5" s="25">
+        <v>45569</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="40">
-        <v>43326</v>
+      <c r="D5" s="25">
+        <v>45527</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>34</v>
@@ -1269,10 +1265,12 @@
         <v>45</v>
       </c>
       <c r="K5" s="40">
-        <v>43326</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="45">
+        <v>45518</v>
+      </c>
+      <c r="L5" s="27">
+        <v>45599</v>
+      </c>
+      <c r="M5" s="44">
         <v>1251746.3600000001</v>
       </c>
       <c r="N5" s="43" t="s">
@@ -1295,20 +1293,20 @@
       <c r="U5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="46"/>
+      <c r="V5" s="45"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="40">
-        <v>43339</v>
+      <c r="B6" s="25">
+        <v>45570</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="40">
-        <v>43326</v>
+      <c r="D6" s="25">
+        <v>45528</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>34</v>
@@ -1329,10 +1327,12 @@
         <v>45</v>
       </c>
       <c r="K6" s="40">
-        <v>43326</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="45">
+        <v>45518</v>
+      </c>
+      <c r="L6" s="27">
+        <v>45600</v>
+      </c>
+      <c r="M6" s="44">
         <v>217710</v>
       </c>
       <c r="N6" s="43" t="s">
@@ -1355,20 +1355,20 @@
       <c r="U6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="46"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="40">
-        <v>43427</v>
+      <c r="B7" s="25">
+        <v>45571</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="40">
-        <v>43326</v>
+      <c r="D7" s="25">
+        <v>45529</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>34</v>
@@ -1389,10 +1389,12 @@
         <v>45</v>
       </c>
       <c r="K7" s="40">
-        <v>43326</v>
-      </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="45">
+        <v>45518</v>
+      </c>
+      <c r="L7" s="27">
+        <v>45601</v>
+      </c>
+      <c r="M7" s="44">
         <v>2523132.91</v>
       </c>
       <c r="N7" s="43" t="s">
@@ -1415,7 +1417,7 @@
       <c r="U7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="46"/>
+      <c r="V7" s="45"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
@@ -1423,7 +1425,7 @@
       <c r="AA7" s="30"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V8" s="49"/>
+      <c r="V8" s="47"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
@@ -1431,7 +1433,7 @@
       <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V9" s="49"/>
+      <c r="V9" s="47"/>
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
@@ -1439,7 +1441,7 @@
       <c r="AA9" s="30"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V10" s="49"/>
+      <c r="V10" s="47"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -1447,7 +1449,7 @@
       <c r="AA10" s="30"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V11" s="49"/>
+      <c r="V11" s="47"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -1455,7 +1457,7 @@
       <c r="AA11" s="30"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V12" s="49"/>
+      <c r="V12" s="47"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="30"/>
@@ -1463,7 +1465,7 @@
       <c r="AA12" s="30"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V13" s="49"/>
+      <c r="V13" s="47"/>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30"/>
@@ -1471,7 +1473,7 @@
       <c r="AA13" s="30"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V14" s="49"/>
+      <c r="V14" s="47"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
       <c r="Y14" s="30"/>
@@ -1479,7 +1481,7 @@
       <c r="AA14" s="30"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V15" s="49"/>
+      <c r="V15" s="47"/>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="30"/>
@@ -1487,7 +1489,7 @@
       <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V16" s="49"/>
+      <c r="V16" s="47"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
       <c r="Y16" s="30"/>
@@ -1495,7 +1497,7 @@
       <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V17" s="49"/>
+      <c r="V17" s="47"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
       <c r="Y17" s="30"/>
@@ -1503,7 +1505,7 @@
       <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V18" s="49"/>
+      <c r="V18" s="47"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
       <c r="Y18" s="30"/>
@@ -1511,7 +1513,7 @@
       <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V19" s="49"/>
+      <c r="V19" s="47"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
@@ -1519,7 +1521,7 @@
       <c r="AA19" s="30"/>
     </row>
     <row r="20" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V20" s="49"/>
+      <c r="V20" s="47"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
       <c r="Y20" s="30"/>
@@ -1527,7 +1529,7 @@
       <c r="AA20" s="30"/>
     </row>
     <row r="21" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V21" s="49"/>
+      <c r="V21" s="47"/>
       <c r="W21" s="30"/>
       <c r="X21" s="30"/>
       <c r="Y21" s="30"/>
@@ -1581,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1612,10 +1614,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -1654,7 +1656,7 @@
       <c r="N1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="48" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="20" t="s">
@@ -1672,15 +1674,15 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="25">
-        <v>40410</v>
+        <v>45524</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="3" t="s">
@@ -1702,7 +1704,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="36"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="51">
+      <c r="O2" s="49">
         <v>4</v>
       </c>
       <c r="P2" s="2"/>
@@ -1719,97 +1721,13 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="L7" s="9"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="L3" s="9"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:S7"/>
+  <autoFilter ref="A1:S3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/Tests/Templates/Supagreements.xlsx
+++ b/src/Tests/Templates/Supagreements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Доп.Соглашения" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>Содержание</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>б/н</t>
-  </si>
-  <si>
-    <t>Приложение</t>
   </si>
   <si>
     <t>.</t>
@@ -222,13 +219,6 @@
 Услувия оплаты:
 50% - в течение 10 рабочих дней после подписания Приложения и предоставления счета на оплату
 Оставшаяся оплата - на смму разницы в течение 10 рабочих дней после предоставления подписанного акта</t>
-  </si>
-  <si>
-    <t>услуги по организации мероприятия COCOGAME в ЦУМе</t>
-  </si>
-  <si>
-    <t>Показ фильма "Колетт" в кинотеатре "Москва" 26.11.2018 с 19 - 23 по местному времени.
-Оплата - в течение 10 рабочих дней после оказания услуг и предоставления акта,сч/ф и счета.</t>
   </si>
   <si>
     <t>Ивановский Геннадий Александрович</t>
@@ -410,7 +400,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -548,10 +538,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -923,38 +909,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
-    <col min="20" max="22" width="13.42578125" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="27.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.86328125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20.3984375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" style="5" customWidth="1"/>
+    <col min="20" max="22" width="13.3984375" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
@@ -1031,7 +1017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1105,7 +1091,7 @@
       </c>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1121,11 +1107,11 @@
       <c r="E3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>46</v>
@@ -1146,32 +1132,36 @@
         <v>1331113.1599999999</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="43" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2">
         <v>5</v>
       </c>
-      <c r="T3" s="43"/>
+      <c r="T3" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="U3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="45"/>
+      <c r="V3" s="38">
+        <v>40453</v>
+      </c>
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>61</v>
+    <row r="4" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="25">
         <v>45568</v>
@@ -1185,11 +1175,11 @@
       <c r="E4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>57</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>46</v>
@@ -1210,30 +1200,34 @@
         <v>655354.30000000005</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O4" s="43" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="43"/>
       <c r="R4" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S4" s="2">
         <v>5</v>
       </c>
-      <c r="T4" s="43"/>
+      <c r="T4" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="U4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="45"/>
+      <c r="V4" s="38">
+        <v>40454</v>
+      </c>
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A5" s="39">
         <v>1</v>
       </c>
@@ -1249,11 +1243,11 @@
       <c r="E5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>57</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>58</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>46</v>
@@ -1274,307 +1268,182 @@
         <v>1251746.3600000001</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="43" t="s">
         <v>39</v>
       </c>
       <c r="P5" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S5" s="2">
         <v>5</v>
       </c>
-      <c r="T5" s="43"/>
+      <c r="T5" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="U5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="45"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25">
-        <v>45570</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="25">
-        <v>45528</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="40">
-        <v>45518</v>
-      </c>
-      <c r="L6" s="27">
-        <v>45600</v>
-      </c>
-      <c r="M6" s="44">
-        <v>217710</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="2">
-        <v>5</v>
-      </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="45"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
-        <v>4</v>
-      </c>
-      <c r="B7" s="25">
-        <v>45571</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="25">
-        <v>45529</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="40">
-        <v>45518</v>
-      </c>
-      <c r="L7" s="27">
-        <v>45601</v>
-      </c>
-      <c r="M7" s="44">
-        <v>2523132.91</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="2">
-        <v>5</v>
-      </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="45"/>
+      <c r="V5" s="38">
+        <v>40455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V6" s="46"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+    </row>
+    <row r="7" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V7" s="46"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V8" s="47"/>
+    <row r="8" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V8" s="46"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
       <c r="AA8" s="30"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V9" s="47"/>
+    <row r="9" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V9" s="46"/>
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="30"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V10" s="47"/>
+    <row r="10" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V10" s="46"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V11" s="47"/>
+    <row r="11" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V11" s="46"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="30"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V12" s="47"/>
+    <row r="12" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V12" s="46"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V13" s="47"/>
+    <row r="13" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V13" s="46"/>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V14" s="47"/>
+    <row r="14" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V14" s="46"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V15" s="47"/>
+    <row r="15" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V15" s="46"/>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="30"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="V16" s="47"/>
+    <row r="16" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V16" s="46"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
     </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V17" s="47"/>
+    <row r="17" spans="22:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V17" s="46"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
       <c r="Y17" s="30"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="30"/>
     </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V18" s="47"/>
+    <row r="18" spans="22:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V18" s="46"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
       <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
     </row>
-    <row r="19" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V19" s="47"/>
+    <row r="19" spans="22:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="V19" s="46"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
       <c r="AA19" s="30"/>
     </row>
-    <row r="20" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V20" s="47"/>
+    <row r="20" spans="22:27" x14ac:dyDescent="0.35">
+      <c r="V20" s="5"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
       <c r="Y20" s="30"/>
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
     </row>
-    <row r="21" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V21" s="47"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-    </row>
-    <row r="22" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="22:27" x14ac:dyDescent="0.35">
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V22" s="5"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-    </row>
-    <row r="23" spans="22:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="22:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="22:27" x14ac:dyDescent="0.35">
       <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="22:27" x14ac:dyDescent="0.2">
-      <c r="V31" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
-    <hyperlink ref="J3:J31" r:id="rId2" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
+    <hyperlink ref="J3:J29" r:id="rId2" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1585,39 +1454,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="27.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -1656,7 +1525,7 @@
       <c r="N1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="20" t="s">
@@ -1673,11 +1542,11 @@
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:22" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1573,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="36"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="49">
+      <c r="O2" s="48">
         <v>4</v>
       </c>
       <c r="P2" s="2"/>
@@ -1721,7 +1590,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="L3" s="9"/>
     </row>
@@ -1741,14 +1610,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -1770,7 +1639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>4</v>
       </c>
@@ -1781,7 +1650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>5</v>
       </c>
@@ -1792,7 +1661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>7</v>
       </c>
@@ -1803,7 +1672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>14</v>
       </c>
@@ -1814,7 +1683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>15</v>
       </c>
